--- a/Monetary Transactions_ret.xlsx
+++ b/Monetary Transactions_ret.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Desktop\promo_may\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Desktop\promo_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C85F29D-0553-43D2-AE82-C4B82C223209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13EFE78-5887-41C5-B385-9E49BFB6C620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1048,7 +1048,7 @@
   <dimension ref="A1:AB32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1363,7 +1363,7 @@
         <v>55</v>
       </c>
       <c r="K4" s="2">
-        <v>45440.615127314813</v>
+        <v>45441.615127314813</v>
       </c>
       <c r="L4" t="s">
         <v>35</v>
@@ -2569,7 +2569,7 @@
         <v>155</v>
       </c>
       <c r="K19" s="2">
-        <v>45440.615127314813</v>
+        <v>45441.615127314813</v>
       </c>
       <c r="L19" t="s">
         <v>35</v>

--- a/Monetary Transactions_ret.xlsx
+++ b/Monetary Transactions_ret.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Desktop\promo_github\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Desktop\promo_may_24-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13EFE78-5887-41C5-B385-9E49BFB6C620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01358BB1-4360-4B22-92A5-C5FECB601911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1047,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1200,7 +1200,7 @@
         <v>34</v>
       </c>
       <c r="K2" s="2">
-        <v>45440.615127314813</v>
+        <v>45441.615127314813</v>
       </c>
       <c r="L2" t="s">
         <v>35</v>
@@ -1280,7 +1280,7 @@
         <v>46</v>
       </c>
       <c r="K3" s="2">
-        <v>45440.615127314813</v>
+        <v>45441.615127314813</v>
       </c>
       <c r="L3" t="s">
         <v>35</v>
@@ -1443,7 +1443,7 @@
         <v>46</v>
       </c>
       <c r="K5" s="2">
-        <v>45440.615127314813</v>
+        <v>45441.615127314813</v>
       </c>
       <c r="L5" t="s">
         <v>35</v>
@@ -1526,7 +1526,7 @@
         <v>68</v>
       </c>
       <c r="K6" s="2">
-        <v>45440.615127314813</v>
+        <v>45441.615127314813</v>
       </c>
       <c r="L6" t="s">
         <v>35</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="2">
-        <v>45440.615127314813</v>
+        <v>45441.615127314813</v>
       </c>
       <c r="L7" t="s">
         <v>35</v>
@@ -1683,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="2">
-        <v>45440.615127314813</v>
+        <v>45441.615127314813</v>
       </c>
       <c r="L8" t="s">
         <v>35</v>
@@ -1766,7 +1766,7 @@
         <v>90</v>
       </c>
       <c r="K9" s="2">
-        <v>45440.615127314813</v>
+        <v>45441.615127314813</v>
       </c>
       <c r="L9" t="s">
         <v>35</v>
@@ -1846,7 +1846,7 @@
         <v>97</v>
       </c>
       <c r="K10" s="2">
-        <v>45440.615127314813</v>
+        <v>45441.615127314813</v>
       </c>
       <c r="L10" t="s">
         <v>35</v>
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="2">
-        <v>45440.615127314813</v>
+        <v>45441.615127314813</v>
       </c>
       <c r="L11" t="s">
         <v>35</v>
@@ -2003,7 +2003,7 @@
         <v>110</v>
       </c>
       <c r="K12" s="2">
-        <v>45440.615127314813</v>
+        <v>45441.615127314813</v>
       </c>
       <c r="L12" t="s">
         <v>35</v>
@@ -2086,7 +2086,7 @@
         <v>110</v>
       </c>
       <c r="K13" s="2">
-        <v>45440.615127314813</v>
+        <v>45441.615127314813</v>
       </c>
       <c r="L13" t="s">
         <v>35</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="2">
-        <v>45440.615127314813</v>
+        <v>45441.615127314813</v>
       </c>
       <c r="L14" t="s">
         <v>35</v>
@@ -2249,7 +2249,7 @@
         <v>127</v>
       </c>
       <c r="K15" s="2">
-        <v>45440.615127314813</v>
+        <v>45441.615127314813</v>
       </c>
       <c r="L15" t="s">
         <v>35</v>
@@ -2329,7 +2329,7 @@
         <v>110</v>
       </c>
       <c r="K16" s="2">
-        <v>45440.615127314813</v>
+        <v>45441.615127314813</v>
       </c>
       <c r="L16" t="s">
         <v>35</v>
@@ -2409,7 +2409,7 @@
         <v>140</v>
       </c>
       <c r="K17" s="2">
-        <v>45440.615127314813</v>
+        <v>45441.615127314813</v>
       </c>
       <c r="L17" t="s">
         <v>35</v>
@@ -2489,7 +2489,7 @@
         <v>147</v>
       </c>
       <c r="K18" s="2">
-        <v>45440.615127314813</v>
+        <v>45441.615127314813</v>
       </c>
       <c r="L18" t="s">
         <v>35</v>
@@ -2649,7 +2649,7 @@
         <v>162</v>
       </c>
       <c r="K20" s="2">
-        <v>45440.615127314813</v>
+        <v>45441.615127314813</v>
       </c>
       <c r="L20" t="s">
         <v>35</v>
@@ -2732,7 +2732,7 @@
         <v>169</v>
       </c>
       <c r="K21" s="2">
-        <v>45440.615127314813</v>
+        <v>45441.615127314813</v>
       </c>
       <c r="L21" t="s">
         <v>35</v>
@@ -2815,7 +2815,7 @@
         <v>110</v>
       </c>
       <c r="K22" s="2">
-        <v>45440.615127314813</v>
+        <v>45441.615127314813</v>
       </c>
       <c r="L22" t="s">
         <v>35</v>
@@ -2898,7 +2898,7 @@
         <v>110</v>
       </c>
       <c r="K23" s="2">
-        <v>45440.615127314813</v>
+        <v>45441.615127314813</v>
       </c>
       <c r="L23" t="s">
         <v>35</v>
@@ -2981,7 +2981,7 @@
         <v>110</v>
       </c>
       <c r="K24" s="2">
-        <v>45440.615127314813</v>
+        <v>45441.615127314813</v>
       </c>
       <c r="L24" t="s">
         <v>35</v>
@@ -3064,7 +3064,7 @@
         <v>182</v>
       </c>
       <c r="K25" s="2">
-        <v>45440.615127314813</v>
+        <v>45441.615127314813</v>
       </c>
       <c r="L25" t="s">
         <v>35</v>
@@ -3147,7 +3147,7 @@
         <v>147</v>
       </c>
       <c r="K26" s="2">
-        <v>45440.615127314813</v>
+        <v>45441.615127314813</v>
       </c>
       <c r="L26" t="s">
         <v>35</v>
@@ -3227,7 +3227,7 @@
         <v>191</v>
       </c>
       <c r="K27" s="2">
-        <v>45440.615127314813</v>
+        <v>45441.615127314813</v>
       </c>
       <c r="L27" t="s">
         <v>35</v>
@@ -3310,7 +3310,7 @@
         <v>46</v>
       </c>
       <c r="K28" s="2">
-        <v>45440.615127314813</v>
+        <v>45441.615127314813</v>
       </c>
       <c r="L28" t="s">
         <v>35</v>
@@ -3393,7 +3393,7 @@
         <v>191</v>
       </c>
       <c r="K29" s="2">
-        <v>45440.615127314813</v>
+        <v>45441.615127314813</v>
       </c>
       <c r="L29" t="s">
         <v>35</v>
@@ -3473,7 +3473,7 @@
         <v>140</v>
       </c>
       <c r="K30" s="2">
-        <v>45440.615127314813</v>
+        <v>45441.615127314813</v>
       </c>
       <c r="L30" t="s">
         <v>35</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="2">
-        <v>45440.615127314813</v>
+        <v>45441.615127314813</v>
       </c>
       <c r="L31" t="s">
         <v>35</v>
@@ -3633,7 +3633,7 @@
         <v>110</v>
       </c>
       <c r="K32" s="2">
-        <v>45440.615127314813</v>
+        <v>45441.615127314813</v>
       </c>
       <c r="L32" t="s">
         <v>35</v>

--- a/Monetary Transactions_ret.xlsx
+++ b/Monetary Transactions_ret.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Desktop\promo_may_24-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01358BB1-4360-4B22-92A5-C5FECB601911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61E27A8-74C9-49CF-B3AE-8521D0693701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetName1" sheetId="1" r:id="rId1"/>
@@ -1047,7 +1047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
@@ -1200,7 +1200,7 @@
         <v>34</v>
       </c>
       <c r="K2" s="2">
-        <v>45441.615127314813</v>
+        <v>45442.615127314813</v>
       </c>
       <c r="L2" t="s">
         <v>35</v>
@@ -1280,7 +1280,7 @@
         <v>46</v>
       </c>
       <c r="K3" s="2">
-        <v>45441.615127314813</v>
+        <v>45442.615127314813</v>
       </c>
       <c r="L3" t="s">
         <v>35</v>
@@ -1363,7 +1363,7 @@
         <v>55</v>
       </c>
       <c r="K4" s="2">
-        <v>45441.615127314813</v>
+        <v>45442.615127314813</v>
       </c>
       <c r="L4" t="s">
         <v>35</v>
@@ -1443,7 +1443,7 @@
         <v>46</v>
       </c>
       <c r="K5" s="2">
-        <v>45441.615127314813</v>
+        <v>45442.615127314813</v>
       </c>
       <c r="L5" t="s">
         <v>35</v>
@@ -1526,7 +1526,7 @@
         <v>68</v>
       </c>
       <c r="K6" s="2">
-        <v>45441.615127314813</v>
+        <v>45442.615127314813</v>
       </c>
       <c r="L6" t="s">
         <v>35</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="2">
-        <v>45441.615127314813</v>
+        <v>45442.615127314813</v>
       </c>
       <c r="L7" t="s">
         <v>35</v>
@@ -1683,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="2">
-        <v>45441.615127314813</v>
+        <v>45442.615127314813</v>
       </c>
       <c r="L8" t="s">
         <v>35</v>
@@ -1766,7 +1766,7 @@
         <v>90</v>
       </c>
       <c r="K9" s="2">
-        <v>45441.615127314813</v>
+        <v>45442.615127314813</v>
       </c>
       <c r="L9" t="s">
         <v>35</v>
@@ -1846,7 +1846,7 @@
         <v>97</v>
       </c>
       <c r="K10" s="2">
-        <v>45441.615127314813</v>
+        <v>45442.615127314813</v>
       </c>
       <c r="L10" t="s">
         <v>35</v>
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="2">
-        <v>45441.615127314813</v>
+        <v>45442.615127314813</v>
       </c>
       <c r="L11" t="s">
         <v>35</v>
@@ -2003,7 +2003,7 @@
         <v>110</v>
       </c>
       <c r="K12" s="2">
-        <v>45441.615127314813</v>
+        <v>45442.615127314813</v>
       </c>
       <c r="L12" t="s">
         <v>35</v>
@@ -2086,7 +2086,7 @@
         <v>110</v>
       </c>
       <c r="K13" s="2">
-        <v>45441.615127314813</v>
+        <v>45442.615127314813</v>
       </c>
       <c r="L13" t="s">
         <v>35</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="2">
-        <v>45441.615127314813</v>
+        <v>45442.615127314813</v>
       </c>
       <c r="L14" t="s">
         <v>35</v>
@@ -2249,7 +2249,7 @@
         <v>127</v>
       </c>
       <c r="K15" s="2">
-        <v>45441.615127314813</v>
+        <v>45442.615127314813</v>
       </c>
       <c r="L15" t="s">
         <v>35</v>
@@ -2329,7 +2329,7 @@
         <v>110</v>
       </c>
       <c r="K16" s="2">
-        <v>45441.615127314813</v>
+        <v>45442.615127314813</v>
       </c>
       <c r="L16" t="s">
         <v>35</v>
@@ -2409,7 +2409,7 @@
         <v>140</v>
       </c>
       <c r="K17" s="2">
-        <v>45441.615127314813</v>
+        <v>45442.615127314813</v>
       </c>
       <c r="L17" t="s">
         <v>35</v>
@@ -2489,7 +2489,7 @@
         <v>147</v>
       </c>
       <c r="K18" s="2">
-        <v>45441.615127314813</v>
+        <v>45442.615127314813</v>
       </c>
       <c r="L18" t="s">
         <v>35</v>
@@ -2569,7 +2569,7 @@
         <v>155</v>
       </c>
       <c r="K19" s="2">
-        <v>45441.615127314813</v>
+        <v>45442.615127314813</v>
       </c>
       <c r="L19" t="s">
         <v>35</v>
@@ -2649,7 +2649,7 @@
         <v>162</v>
       </c>
       <c r="K20" s="2">
-        <v>45441.615127314813</v>
+        <v>45442.615127314813</v>
       </c>
       <c r="L20" t="s">
         <v>35</v>
@@ -2732,7 +2732,7 @@
         <v>169</v>
       </c>
       <c r="K21" s="2">
-        <v>45441.615127314813</v>
+        <v>45442.615127314813</v>
       </c>
       <c r="L21" t="s">
         <v>35</v>
@@ -2815,7 +2815,7 @@
         <v>110</v>
       </c>
       <c r="K22" s="2">
-        <v>45441.615127314813</v>
+        <v>45442.615127314813</v>
       </c>
       <c r="L22" t="s">
         <v>35</v>
@@ -2898,7 +2898,7 @@
         <v>110</v>
       </c>
       <c r="K23" s="2">
-        <v>45441.615127314813</v>
+        <v>45442.615127314813</v>
       </c>
       <c r="L23" t="s">
         <v>35</v>
@@ -2981,7 +2981,7 @@
         <v>110</v>
       </c>
       <c r="K24" s="2">
-        <v>45441.615127314813</v>
+        <v>45442.615127314813</v>
       </c>
       <c r="L24" t="s">
         <v>35</v>
@@ -3064,7 +3064,7 @@
         <v>182</v>
       </c>
       <c r="K25" s="2">
-        <v>45441.615127314813</v>
+        <v>45442.615127314813</v>
       </c>
       <c r="L25" t="s">
         <v>35</v>
@@ -3147,7 +3147,7 @@
         <v>147</v>
       </c>
       <c r="K26" s="2">
-        <v>45441.615127314813</v>
+        <v>45442.615127314813</v>
       </c>
       <c r="L26" t="s">
         <v>35</v>
@@ -3227,7 +3227,7 @@
         <v>191</v>
       </c>
       <c r="K27" s="2">
-        <v>45441.615127314813</v>
+        <v>45442.615127314813</v>
       </c>
       <c r="L27" t="s">
         <v>35</v>
@@ -3310,7 +3310,7 @@
         <v>46</v>
       </c>
       <c r="K28" s="2">
-        <v>45441.615127314813</v>
+        <v>45442.615127314813</v>
       </c>
       <c r="L28" t="s">
         <v>35</v>
@@ -3393,7 +3393,7 @@
         <v>191</v>
       </c>
       <c r="K29" s="2">
-        <v>45441.615127314813</v>
+        <v>45442.615127314813</v>
       </c>
       <c r="L29" t="s">
         <v>35</v>
@@ -3473,7 +3473,7 @@
         <v>140</v>
       </c>
       <c r="K30" s="2">
-        <v>45441.615127314813</v>
+        <v>45442.615127314813</v>
       </c>
       <c r="L30" t="s">
         <v>35</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="2">
-        <v>45441.615127314813</v>
+        <v>45442.615127314813</v>
       </c>
       <c r="L31" t="s">
         <v>35</v>
@@ -3633,7 +3633,7 @@
         <v>110</v>
       </c>
       <c r="K32" s="2">
-        <v>45441.615127314813</v>
+        <v>45442.615127314813</v>
       </c>
       <c r="L32" t="s">
         <v>35</v>

--- a/Monetary Transactions_ret.xlsx
+++ b/Monetary Transactions_ret.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jack Wilson\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376C1FE0-9BB7-4DD9-B9F5-883445C4FC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetName1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="115">
   <si>
     <t>Account ID</t>
   </si>
@@ -362,11 +370,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -375,9 +383,16 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -387,6 +402,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -402,64 +423,392 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1"/>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="0"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.754120826721191" customWidth="1"/>
-    <col min="2" max="2" width="11.841639518737793" customWidth="1"/>
-    <col min="3" max="3" width="10.101405143737793" customWidth="1"/>
-    <col min="4" max="4" width="17.774394989013672" customWidth="1"/>
-    <col min="5" max="5" width="16.005516052246094" customWidth="1"/>
-    <col min="6" max="6" width="8.899304389953613" customWidth="1"/>
-    <col min="7" max="7" width="23.565967559814453" customWidth="1"/>
-    <col min="8" max="8" width="19.837919235229492" customWidth="1"/>
-    <col min="9" max="9" width="15.198317527770996" customWidth="1"/>
-    <col min="10" max="10" width="12.0196533203125" customWidth="1"/>
-    <col min="11" max="11" width="18.768814086914062" customWidth="1"/>
-    <col min="12" max="12" width="5.033139705657959" customWidth="1"/>
-    <col min="13" max="13" width="4.117496490478516" customWidth="1"/>
-    <col min="14" max="14" width="13.505144119262695" customWidth="1"/>
-    <col min="15" max="15" width="25.30211067199707" customWidth="1"/>
-    <col min="16" max="16" width="16.592754364013672" customWidth="1"/>
-    <col min="17" max="17" width="19.003097534179688" customWidth="1"/>
-    <col min="18" max="18" width="47.23560333251953" customWidth="1"/>
-    <col min="19" max="19" width="18.768814086914062" customWidth="1"/>
-    <col min="20" max="20" width="12.263142585754395" customWidth="1"/>
-    <col min="21" max="21" width="7.286952972412109" customWidth="1"/>
-    <col min="22" max="22" width="17.198410034179688" customWidth="1"/>
-    <col min="23" max="23" width="47.9312858581543" customWidth="1"/>
-    <col min="24" max="24" width="8.703898429870605" customWidth="1"/>
-    <col min="25" max="25" width="15.461244583129883" customWidth="1"/>
-    <col min="26" max="26" width="6.298671722412109" customWidth="1"/>
-    <col min="27" max="27" width="18.760631561279297" customWidth="1"/>
-    <col min="28" max="28" width="18.768814086914062" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" customWidth="1"/>
+    <col min="12" max="12" width="5" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" customWidth="1"/>
+    <col min="15" max="15" width="25.28515625" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" customWidth="1"/>
+    <col min="17" max="17" width="19" customWidth="1"/>
+    <col min="18" max="18" width="47.28515625" customWidth="1"/>
+    <col min="19" max="19" width="18.7109375" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" customWidth="1"/>
+    <col min="21" max="21" width="7.28515625" customWidth="1"/>
+    <col min="22" max="22" width="17.140625" customWidth="1"/>
+    <col min="23" max="23" width="48" customWidth="1"/>
+    <col min="24" max="24" width="8.7109375" customWidth="1"/>
+    <col min="25" max="25" width="15.42578125" customWidth="1"/>
+    <col min="26" max="26" width="6.28515625" customWidth="1"/>
+    <col min="27" max="28" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,889 +894,889 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="0">
+      <c r="F2">
         <v>514.21</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" s="0" t="s">
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
         <v>35</v>
       </c>
       <c r="K2" s="2">
         <v>45443.326736111114</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="L2" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="N2" s="0" t="s">
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="O2" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="0" t="s">
+      <c r="P2" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="0" t="s">
+      <c r="R2" t="s">
         <v>39</v>
       </c>
       <c r="S2" s="2">
-        <v>45428.58059027778</v>
-      </c>
-      <c r="T2" s="0">
+        <v>45428.580590277779</v>
+      </c>
+      <c r="T2">
         <v>514.21</v>
       </c>
-      <c r="U2" s="0" t="s">
+      <c r="U2" t="s">
         <v>40</v>
       </c>
-      <c r="V2" s="0">
+      <c r="V2">
         <v>764</v>
       </c>
-      <c r="W2" s="0" t="s">
+      <c r="W2" t="s">
         <v>41</v>
       </c>
-      <c r="X2" s="0" t="s">
+      <c r="X2" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="0">
+      <c r="Y2">
         <v>1306.72</v>
       </c>
-      <c r="Z2" s="0" t="s">
+      <c r="Z2" t="s">
         <v>12</v>
       </c>
       <c r="AB2" s="2">
         <v>45439.59716435185</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="0">
+      <c r="F3">
         <v>13625.57</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="0" t="s">
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
         <v>47</v>
       </c>
       <c r="K3" s="2">
-        <v>45443.28836805555</v>
-      </c>
-      <c r="L3" s="0" t="s">
+        <v>45443.288368055553</v>
+      </c>
+      <c r="L3" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" s="0" t="s">
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="0" t="s">
+      <c r="O3" t="s">
         <v>46</v>
       </c>
-      <c r="P3" s="0" t="s">
+      <c r="P3" t="s">
         <v>38</v>
       </c>
-      <c r="R3" s="0" t="s">
+      <c r="R3" t="s">
         <v>48</v>
       </c>
-      <c r="S3" s="2">
-        <v>45420.45271990741</v>
-      </c>
-      <c r="T3" s="0">
+      <c r="S3" s="3">
+        <v>45390.452719907407</v>
+      </c>
+      <c r="T3">
         <v>13625.57</v>
       </c>
-      <c r="U3" s="0" t="s">
+      <c r="U3" t="s">
         <v>49</v>
       </c>
-      <c r="V3" s="0">
+      <c r="V3">
         <v>963</v>
       </c>
-      <c r="W3" s="0" t="s">
+      <c r="W3" t="s">
         <v>41</v>
       </c>
-      <c r="X3" s="0" t="s">
+      <c r="X3" t="s">
         <v>42</v>
       </c>
-      <c r="Y3" s="0">
+      <c r="Y3">
         <v>59999.35263609</v>
       </c>
-      <c r="Z3" s="0" t="s">
+      <c r="Z3" t="s">
         <v>12</v>
       </c>
-      <c r="AA3" s="0">
+      <c r="AA3">
         <v>1</v>
       </c>
       <c r="AB3" s="2">
         <v>45439.596863425926</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="0">
+      <c r="F4">
         <v>250</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="0" t="s">
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
         <v>53</v>
       </c>
       <c r="K4" s="2">
         <v>45443.260034722225</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="L4" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="N4" s="0" t="s">
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
         <v>54</v>
       </c>
-      <c r="O4" s="0" t="s">
+      <c r="O4" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="0" t="s">
+      <c r="P4" t="s">
         <v>55</v>
       </c>
-      <c r="R4" s="0" t="s">
+      <c r="R4" t="s">
         <v>56</v>
       </c>
       <c r="S4" s="2">
-        <v>45435.36761574074</v>
-      </c>
-      <c r="T4" s="0">
+        <v>45435.367615740739</v>
+      </c>
+      <c r="T4">
         <v>250</v>
       </c>
-      <c r="U4" s="0" t="s">
+      <c r="U4" t="s">
         <v>57</v>
       </c>
-      <c r="V4" s="0">
+      <c r="V4">
         <v>1043</v>
       </c>
-      <c r="W4" s="0" t="s">
+      <c r="W4" t="s">
         <v>58</v>
       </c>
-      <c r="X4" s="0" t="s">
+      <c r="X4" t="s">
         <v>42</v>
       </c>
-      <c r="Y4" s="0">
+      <c r="Y4">
         <v>500</v>
       </c>
-      <c r="Z4" s="0" t="s">
+      <c r="Z4" t="s">
         <v>12</v>
       </c>
       <c r="AB4" s="2">
         <v>45439.59716435185</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="0">
+      <c r="F5">
         <v>976.01</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" t="s">
         <v>63</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="0" t="s">
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
         <v>64</v>
       </c>
       <c r="K5" s="2">
         <v>45442.729629629626</v>
       </c>
-      <c r="L5" s="0" t="s">
+      <c r="L5" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="N5" s="0" t="s">
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="0" t="s">
+      <c r="O5" t="s">
         <v>62</v>
       </c>
-      <c r="P5" s="0" t="s">
+      <c r="P5" t="s">
         <v>38</v>
       </c>
-      <c r="R5" s="0" t="s">
+      <c r="R5" t="s">
         <v>65</v>
       </c>
       <c r="S5" s="2">
         <v>45407.577523148146</v>
       </c>
-      <c r="T5" s="0">
-        <v>1058.1217</v>
-      </c>
-      <c r="U5" s="0" t="s">
+      <c r="T5">
+        <v>1058.1216999999999</v>
+      </c>
+      <c r="U5" t="s">
         <v>66</v>
       </c>
-      <c r="V5" s="0" t="s">
+      <c r="V5" t="s">
         <v>67</v>
       </c>
-      <c r="W5" s="0" t="s">
+      <c r="W5" t="s">
         <v>68</v>
       </c>
-      <c r="X5" s="0" t="s">
+      <c r="X5" t="s">
         <v>69</v>
       </c>
-      <c r="Y5" s="0">
+      <c r="Y5">
         <v>1403.8691448</v>
       </c>
-      <c r="Z5" s="0" t="s">
+      <c r="Z5" t="s">
         <v>12</v>
       </c>
       <c r="AB5" s="2">
         <v>45439.60429398148</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="0">
+      <c r="F6">
         <v>904.48</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="0" t="s">
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
         <v>53</v>
       </c>
       <c r="K6" s="2">
-        <v>45442.62541666667</v>
-      </c>
-      <c r="L6" s="0" t="s">
+        <v>45442.625416666669</v>
+      </c>
+      <c r="L6" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="N6" s="0" t="s">
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
         <v>37</v>
       </c>
-      <c r="O6" s="0" t="s">
+      <c r="O6" t="s">
         <v>73</v>
       </c>
-      <c r="P6" s="0" t="s">
+      <c r="P6" t="s">
         <v>74</v>
       </c>
-      <c r="R6" s="0" t="s">
+      <c r="R6" t="s">
         <v>75</v>
       </c>
       <c r="S6" s="2">
         <v>45434.199895833335</v>
       </c>
-      <c r="T6" s="0">
+      <c r="T6">
         <v>904.48</v>
       </c>
-      <c r="U6" s="0" t="s">
+      <c r="U6" t="s">
         <v>76</v>
       </c>
-      <c r="V6" s="0">
+      <c r="V6">
         <v>973</v>
       </c>
-      <c r="W6" s="0" t="s">
+      <c r="W6" t="s">
         <v>58</v>
       </c>
-      <c r="X6" s="0" t="s">
+      <c r="X6" t="s">
         <v>42</v>
       </c>
-      <c r="Y6" s="0">
-        <v>7721.80288593</v>
-      </c>
-      <c r="Z6" s="0" t="s">
+      <c r="Y6">
+        <v>7721.8028859300002</v>
+      </c>
+      <c r="Z6" t="s">
         <v>12</v>
       </c>
       <c r="AB6" s="2">
         <v>45439.599328703705</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" t="s">
         <v>80</v>
       </c>
-      <c r="F7" s="0">
+      <c r="F7">
         <v>250</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="s">
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
         <v>81</v>
       </c>
       <c r="K7" s="2">
-        <v>45442.59605324074</v>
-      </c>
-      <c r="L7" s="0" t="s">
+        <v>45442.596053240741</v>
+      </c>
+      <c r="L7" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="N7" s="0" t="s">
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
         <v>54</v>
       </c>
-      <c r="O7" s="0" t="s">
+      <c r="O7" t="s">
         <v>46</v>
       </c>
-      <c r="P7" s="0" t="s">
+      <c r="P7" t="s">
         <v>82</v>
       </c>
       <c r="S7" s="2">
-        <v>45433.83949074074</v>
-      </c>
-      <c r="T7" s="0">
-        <v>270.8325</v>
-      </c>
-      <c r="U7" s="0" t="s">
+        <v>45433.839490740742</v>
+      </c>
+      <c r="T7">
+        <v>270.83249999999998</v>
+      </c>
+      <c r="U7" t="s">
         <v>83</v>
       </c>
-      <c r="V7" s="0">
+      <c r="V7">
         <v>672</v>
       </c>
-      <c r="W7" s="0" t="s">
+      <c r="W7" t="s">
         <v>84</v>
       </c>
-      <c r="X7" s="0" t="s">
+      <c r="X7" t="s">
         <v>69</v>
       </c>
-      <c r="Y7" s="0">
-        <v>145.44514445</v>
-      </c>
-      <c r="Z7" s="0" t="s">
+      <c r="Y7">
+        <v>145.44514444999999</v>
+      </c>
+      <c r="Z7" t="s">
         <v>12</v>
       </c>
-      <c r="AA7" s="0">
+      <c r="AA7">
         <v>1</v>
       </c>
       <c r="AB7" s="2">
         <v>45439.596863425926</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" t="s">
         <v>80</v>
       </c>
-      <c r="F8" s="0">
+      <c r="F8">
         <v>250</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="0" t="s">
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
         <v>89</v>
       </c>
       <c r="K8" s="2">
         <v>45442.582719907405</v>
       </c>
-      <c r="L8" s="0" t="s">
+      <c r="L8" t="s">
         <v>36</v>
       </c>
-      <c r="M8" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="N8" s="0" t="s">
+      <c r="M8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
         <v>54</v>
       </c>
-      <c r="O8" s="0" t="s">
+      <c r="O8" t="s">
         <v>88</v>
       </c>
-      <c r="P8" s="0" t="s">
+      <c r="P8" t="s">
         <v>82</v>
       </c>
       <c r="S8" s="2">
-        <v>45434.40458333334</v>
-      </c>
-      <c r="T8" s="0">
-        <v>270.72</v>
-      </c>
-      <c r="U8" s="0" t="s">
+        <v>45434.404583333337</v>
+      </c>
+      <c r="T8">
+        <v>270.72000000000003</v>
+      </c>
+      <c r="U8" t="s">
         <v>90</v>
       </c>
-      <c r="V8" s="0">
+      <c r="V8">
         <v>658</v>
       </c>
-      <c r="W8" s="0" t="s">
+      <c r="W8" t="s">
         <v>84</v>
       </c>
-      <c r="X8" s="0" t="s">
+      <c r="X8" t="s">
         <v>69</v>
       </c>
-      <c r="Y8" s="0">
-        <v>38.80159533</v>
-      </c>
-      <c r="Z8" s="0" t="s">
+      <c r="Y8">
+        <v>38.801595329999998</v>
+      </c>
+      <c r="Z8" t="s">
         <v>12</v>
       </c>
-      <c r="AA8" s="0">
+      <c r="AA8">
         <v>1</v>
       </c>
       <c r="AB8" s="2">
-        <v>45439.59853009259</v>
+        <v>45439.598530092589</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>91</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="0">
+      <c r="F9">
         <v>1000</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="0" t="s">
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
         <v>89</v>
       </c>
       <c r="K9" s="2">
-        <v>45442.57053240741</v>
-      </c>
-      <c r="L9" s="0" t="s">
+        <v>45442.570532407408</v>
+      </c>
+      <c r="L9" t="s">
         <v>36</v>
       </c>
-      <c r="M9" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="N9" s="0" t="s">
+      <c r="M9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
         <v>54</v>
       </c>
-      <c r="O9" s="0" t="s">
+      <c r="O9" t="s">
         <v>94</v>
       </c>
-      <c r="P9" s="0" t="s">
+      <c r="P9" t="s">
         <v>95</v>
       </c>
-      <c r="R9" s="0" t="s">
+      <c r="R9" t="s">
         <v>96</v>
       </c>
       <c r="S9" s="2">
-        <v>45433.61585648148</v>
-      </c>
-      <c r="T9" s="0">
+        <v>45433.615856481483</v>
+      </c>
+      <c r="T9">
         <v>1082.71</v>
       </c>
-      <c r="U9" s="0" t="s">
+      <c r="U9" t="s">
         <v>97</v>
       </c>
-      <c r="V9" s="0">
+      <c r="V9">
         <v>764</v>
       </c>
-      <c r="W9" s="0" t="s">
+      <c r="W9" t="s">
         <v>84</v>
       </c>
-      <c r="X9" s="0" t="s">
+      <c r="X9" t="s">
         <v>69</v>
       </c>
-      <c r="Y9" s="0">
-        <v>1352.84806146</v>
-      </c>
-      <c r="Z9" s="0" t="s">
+      <c r="Y9">
+        <v>1352.8480614600001</v>
+      </c>
+      <c r="Z9" t="s">
         <v>12</v>
       </c>
-      <c r="AA9" s="0">
+      <c r="AA9">
         <v>1</v>
       </c>
       <c r="AB9" s="2">
         <v>45439.59815972222</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="0">
+      <c r="F10">
         <v>980.21</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="0" t="s">
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
         <v>102</v>
       </c>
       <c r="K10" s="2">
-        <v>45442.53239583333</v>
-      </c>
-      <c r="L10" s="0" t="s">
+        <v>45442.532395833332</v>
+      </c>
+      <c r="L10" t="s">
         <v>36</v>
       </c>
-      <c r="M10" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="N10" s="0" t="s">
+      <c r="M10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
         <v>37</v>
       </c>
-      <c r="O10" s="0" t="s">
+      <c r="O10" t="s">
         <v>101</v>
       </c>
-      <c r="P10" s="0" t="s">
+      <c r="P10" t="s">
         <v>38</v>
       </c>
-      <c r="R10" s="0" t="s">
+      <c r="R10" t="s">
         <v>103</v>
       </c>
       <c r="S10" s="2">
         <v>45428.599756944444</v>
       </c>
-      <c r="T10" s="0">
+      <c r="T10">
         <v>1061.3616</v>
       </c>
-      <c r="U10" s="0" t="s">
+      <c r="U10" t="s">
         <v>104</v>
       </c>
-      <c r="V10" s="0">
+      <c r="V10">
         <v>777</v>
       </c>
-      <c r="W10" s="0" t="s">
+      <c r="W10" t="s">
         <v>105</v>
       </c>
-      <c r="X10" s="0" t="s">
+      <c r="X10" t="s">
         <v>69</v>
       </c>
-      <c r="Y10" s="0">
-        <v>2870.91844681</v>
-      </c>
-      <c r="Z10" s="0" t="s">
+      <c r="Y10">
+        <v>2870.9184468100002</v>
+      </c>
+      <c r="Z10" t="s">
         <v>12</v>
       </c>
-      <c r="AA10" s="0">
+      <c r="AA10">
         <v>1</v>
       </c>
       <c r="AB10" s="2">
-        <v>45439.59653935185</v>
+        <v>45439.596539351849</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>106</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>109</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="0">
+      <c r="F11">
         <v>500</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="H11" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="0" t="s">
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
         <v>53</v>
       </c>
       <c r="K11" s="2">
-        <v>45442.38491898148</v>
-      </c>
-      <c r="L11" s="0" t="s">
+        <v>45442.384918981479</v>
+      </c>
+      <c r="L11" t="s">
         <v>36</v>
       </c>
-      <c r="M11" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="N11" s="0" t="s">
+      <c r="M11" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
         <v>54</v>
       </c>
-      <c r="O11" s="0" t="s">
+      <c r="O11" t="s">
         <v>109</v>
       </c>
-      <c r="P11" s="0" t="s">
+      <c r="P11" t="s">
         <v>82</v>
       </c>
-      <c r="R11" s="0" t="s">
+      <c r="R11" t="s">
         <v>110</v>
       </c>
       <c r="S11" s="2">
-        <v>45428.68678240741</v>
-      </c>
-      <c r="T11" s="0">
+        <v>45428.686782407407</v>
+      </c>
+      <c r="T11">
         <v>540.77</v>
       </c>
-      <c r="U11" s="0" t="s">
+      <c r="U11" t="s">
         <v>111</v>
       </c>
-      <c r="V11" s="0">
+      <c r="V11">
         <v>661</v>
       </c>
-      <c r="W11" s="0" t="s">
+      <c r="W11" t="s">
         <v>112</v>
       </c>
-      <c r="X11" s="0" t="s">
+      <c r="X11" t="s">
         <v>69</v>
       </c>
-      <c r="Y11" s="0">
-        <v>2984.67745226</v>
-      </c>
-      <c r="Z11" s="0" t="s">
+      <c r="Y11">
+        <v>2984.6774522599999</v>
+      </c>
+      <c r="Z11" t="s">
         <v>12</v>
       </c>
       <c r="AB11" s="2">
         <v>45439.599641203706</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="0">
+      <c r="F12">
         <v>910.22</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="H12" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" s="0" t="s">
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
         <v>53</v>
       </c>
       <c r="K12" s="2">
-        <v>45442.25434027778</v>
-      </c>
-      <c r="L12" s="0" t="s">
+        <v>45442.254340277781</v>
+      </c>
+      <c r="L12" t="s">
         <v>36</v>
       </c>
-      <c r="M12" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="N12" s="0" t="s">
+      <c r="M12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="0" t="s">
+      <c r="O12" t="s">
         <v>73</v>
       </c>
-      <c r="P12" s="0" t="s">
+      <c r="P12" t="s">
         <v>74</v>
       </c>
-      <c r="R12" s="0" t="s">
+      <c r="R12" t="s">
         <v>113</v>
       </c>
       <c r="S12" s="2">
         <v>45434.199895833335</v>
       </c>
-      <c r="T12" s="0">
+      <c r="T12">
         <v>910.22</v>
       </c>
-      <c r="U12" s="0" t="s">
+      <c r="U12" t="s">
         <v>114</v>
       </c>
-      <c r="V12" s="0">
+      <c r="V12">
         <v>973</v>
       </c>
-      <c r="W12" s="0" t="s">
+      <c r="W12" t="s">
         <v>58</v>
       </c>
-      <c r="X12" s="0" t="s">
+      <c r="X12" t="s">
         <v>42</v>
       </c>
-      <c r="Y12" s="0">
-        <v>7721.80288593</v>
-      </c>
-      <c r="Z12" s="0" t="s">
+      <c r="Y12">
+        <v>7721.8028859300002</v>
+      </c>
+      <c r="Z12" t="s">
         <v>12</v>
       </c>
       <c r="AB12" s="2">
@@ -1435,6 +1784,6 @@
       </c>
     </row>
   </sheetData>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Monetary Transactions_ret.xlsx
+++ b/Monetary Transactions_ret.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jack Wilson\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Desktop\promo_may_24-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376C1FE0-9BB7-4DD9-B9F5-883445C4FC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C202149C-FAE2-4600-9B27-49550D482C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30480" yWindow="2760" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetName1" sheetId="1" r:id="rId1"/>
@@ -773,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,7 +911,7 @@
         <v>32</v>
       </c>
       <c r="F2">
-        <v>514.21</v>
+        <v>5000</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
@@ -950,7 +950,7 @@
         <v>45428.580590277779</v>
       </c>
       <c r="T2">
-        <v>514.21</v>
+        <v>5000</v>
       </c>
       <c r="U2" t="s">
         <v>40</v>

--- a/Monetary Transactions_ret.xlsx
+++ b/Monetary Transactions_ret.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jack Wilson\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06084BEB-F143-4297-A2E5-C6E7804369AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView/>
+    <workbookView xWindow="4785" yWindow="2085" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetName1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="144">
   <si>
     <t>Account ID</t>
   </si>
@@ -449,11 +457,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -489,64 +497,393 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1"/>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="0"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:AB9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.754120826721191" customWidth="1"/>
-    <col min="2" max="2" width="15.268908500671387" customWidth="1"/>
-    <col min="3" max="3" width="10.101405143737793" customWidth="1"/>
-    <col min="4" max="4" width="17.774394989013672" customWidth="1"/>
-    <col min="5" max="5" width="16.005516052246094" customWidth="1"/>
-    <col min="6" max="6" width="8.899304389953613" customWidth="1"/>
-    <col min="7" max="7" width="23.565967559814453" customWidth="1"/>
-    <col min="8" max="8" width="19.837919235229492" customWidth="1"/>
-    <col min="9" max="9" width="15.198317527770996" customWidth="1"/>
-    <col min="10" max="10" width="12.0196533203125" customWidth="1"/>
-    <col min="11" max="11" width="18.768814086914062" customWidth="1"/>
-    <col min="12" max="12" width="5.033139705657959" customWidth="1"/>
-    <col min="13" max="13" width="4.117496490478516" customWidth="1"/>
-    <col min="14" max="14" width="13.505144119262695" customWidth="1"/>
-    <col min="15" max="15" width="25.30211067199707" customWidth="1"/>
-    <col min="16" max="16" width="16.592754364013672" customWidth="1"/>
-    <col min="17" max="17" width="19.003097534179688" customWidth="1"/>
-    <col min="18" max="18" width="47.23560333251953" customWidth="1"/>
-    <col min="19" max="19" width="18.768814086914062" customWidth="1"/>
-    <col min="20" max="20" width="12.263142585754395" customWidth="1"/>
-    <col min="21" max="21" width="7.286952972412109" customWidth="1"/>
-    <col min="22" max="22" width="17.198410034179688" customWidth="1"/>
-    <col min="23" max="23" width="47.9312858581543" customWidth="1"/>
-    <col min="24" max="24" width="8.703898429870605" customWidth="1"/>
-    <col min="25" max="25" width="15.461244583129883" customWidth="1"/>
-    <col min="26" max="26" width="6.298671722412109" customWidth="1"/>
-    <col min="27" max="27" width="18.760631561279297" customWidth="1"/>
-    <col min="28" max="28" width="18.768814086914062" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" customWidth="1"/>
+    <col min="12" max="12" width="5" customWidth="1"/>
+    <col min="13" max="13" width="4.140625" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" customWidth="1"/>
+    <col min="15" max="15" width="25.28515625" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" customWidth="1"/>
+    <col min="17" max="17" width="19" customWidth="1"/>
+    <col min="18" max="18" width="47.28515625" customWidth="1"/>
+    <col min="19" max="19" width="18.7109375" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" customWidth="1"/>
+    <col min="21" max="21" width="7.28515625" customWidth="1"/>
+    <col min="22" max="22" width="17.140625" customWidth="1"/>
+    <col min="23" max="23" width="48" customWidth="1"/>
+    <col min="24" max="24" width="8.7109375" customWidth="1"/>
+    <col min="25" max="25" width="15.42578125" customWidth="1"/>
+    <col min="26" max="26" width="6.28515625" customWidth="1"/>
+    <col min="27" max="28" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -632,1452 +969,1454 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="0">
+      <c r="F2">
         <v>805.14</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" s="0" t="s">
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
         <v>35</v>
       </c>
       <c r="K2" s="2">
-        <v>45443.5775462963</v>
-      </c>
-      <c r="L2" s="0" t="s">
+        <v>45443.577546296299</v>
+      </c>
+      <c r="L2" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="N2" s="0" t="s">
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="O2" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="0" t="s">
+      <c r="P2" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="0" t="s">
+      <c r="R2" t="s">
         <v>39</v>
       </c>
       <c r="S2" s="2">
-        <v>45432.72555555555</v>
-      </c>
-      <c r="T2" s="0">
-        <v>875.2918</v>
-      </c>
-      <c r="U2" s="0" t="s">
+        <v>45432.725555555553</v>
+      </c>
+      <c r="T2">
+        <v>875.29179999999997</v>
+      </c>
+      <c r="U2" t="s">
         <v>40</v>
       </c>
-      <c r="V2" s="0">
+      <c r="V2">
         <v>973</v>
       </c>
-      <c r="W2" s="0" t="s">
+      <c r="W2" t="s">
         <v>41</v>
       </c>
-      <c r="X2" s="0" t="s">
+      <c r="X2" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="0">
+      <c r="Y2">
         <v>805.14</v>
       </c>
-      <c r="Z2" s="0" t="s">
+      <c r="Z2" t="s">
         <v>12</v>
       </c>
       <c r="AB2" s="2">
-        <v>45439.59885416667</v>
+        <v>45439.598854166667</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="0">
+      <c r="F3">
         <v>1547.28</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="0" t="s">
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
         <v>47</v>
       </c>
       <c r="K3" s="2">
         <v>45443.55972222222</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="L3" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" s="0" t="s">
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="0" t="s">
+      <c r="O3" t="s">
         <v>46</v>
       </c>
-      <c r="P3" s="0" t="s">
+      <c r="P3" t="s">
         <v>38</v>
       </c>
-      <c r="R3" s="0" t="s">
+      <c r="R3" t="s">
         <v>48</v>
       </c>
       <c r="S3" s="2">
         <v>45434.199895833335</v>
       </c>
-      <c r="T3" s="0">
+      <c r="T3">
         <v>1547.28</v>
       </c>
-      <c r="U3" s="0" t="s">
+      <c r="U3" t="s">
         <v>49</v>
       </c>
-      <c r="V3" s="0">
+      <c r="V3">
         <v>973</v>
       </c>
-      <c r="W3" s="0" t="s">
+      <c r="W3" t="s">
         <v>50</v>
       </c>
-      <c r="X3" s="0" t="s">
+      <c r="X3" t="s">
         <v>51</v>
       </c>
-      <c r="Y3" s="0">
+      <c r="Y3">
         <v>9269.08288593</v>
       </c>
-      <c r="Z3" s="0" t="s">
+      <c r="Z3" t="s">
         <v>12</v>
       </c>
       <c r="AB3" s="2">
         <v>45439.599328703705</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="0">
+      <c r="F4">
         <v>250</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="0" t="s">
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
         <v>56</v>
       </c>
       <c r="K4" s="2">
         <v>45443.542916666665</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="L4" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="N4" s="0" t="s">
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
         <v>57</v>
       </c>
-      <c r="O4" s="0" t="s">
+      <c r="O4" t="s">
         <v>54</v>
       </c>
-      <c r="P4" s="0" t="s">
+      <c r="P4" t="s">
         <v>58</v>
       </c>
       <c r="S4" s="2">
-        <v>45435.37123842593</v>
-      </c>
-      <c r="T4" s="0">
-        <v>271.9625</v>
-      </c>
-      <c r="U4" s="0" t="s">
+        <v>45435.371238425927</v>
+      </c>
+      <c r="T4">
+        <v>271.96249999999998</v>
+      </c>
+      <c r="U4" t="s">
         <v>59</v>
       </c>
-      <c r="V4" s="0">
+      <c r="V4">
         <v>764</v>
       </c>
-      <c r="W4" s="0" t="s">
+      <c r="W4" t="s">
         <v>41</v>
       </c>
-      <c r="X4" s="0" t="s">
+      <c r="X4" t="s">
         <v>42</v>
       </c>
-      <c r="Y4" s="0">
-        <v>4.14934343</v>
-      </c>
-      <c r="Z4" s="0" t="s">
+      <c r="Y4">
+        <v>4.1493434300000001</v>
+      </c>
+      <c r="Z4" t="s">
         <v>12</v>
       </c>
       <c r="AB4" s="2">
-        <v>45439.59853009259</v>
+        <v>45439.598530092589</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="0">
+      <c r="F5">
         <v>210</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="0" t="s">
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
         <v>63</v>
       </c>
       <c r="K5" s="2">
-        <v>45443.51228009259</v>
-      </c>
-      <c r="L5" s="0" t="s">
+        <v>45443.512280092589</v>
+      </c>
+      <c r="L5" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="N5" s="0" t="s">
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
         <v>64</v>
       </c>
-      <c r="O5" s="0" t="s">
+      <c r="O5" t="s">
         <v>46</v>
       </c>
-      <c r="P5" s="0" t="s">
+      <c r="P5" t="s">
         <v>64</v>
       </c>
-      <c r="Q5" s="0" t="s">
+      <c r="Q5" t="s">
         <v>64</v>
       </c>
-      <c r="R5" s="0" t="s">
+      <c r="R5" t="s">
         <v>65</v>
       </c>
       <c r="S5" s="2">
-        <v>45400.36719907408</v>
-      </c>
-      <c r="T5" s="0">
+        <v>45400.367199074077</v>
+      </c>
+      <c r="T5">
         <v>210</v>
       </c>
-      <c r="U5" s="0" t="s">
+      <c r="U5" t="s">
         <v>66</v>
       </c>
-      <c r="V5" s="0">
+      <c r="V5">
         <v>759</v>
       </c>
-      <c r="W5" s="0" t="s">
+      <c r="W5" t="s">
         <v>50</v>
       </c>
-      <c r="X5" s="0" t="s">
+      <c r="X5" t="s">
         <v>51</v>
       </c>
-      <c r="Y5" s="0">
+      <c r="Y5">
         <v>14144.37219606</v>
       </c>
-      <c r="Z5" s="0" t="s">
+      <c r="Z5" t="s">
         <v>12</v>
       </c>
       <c r="AB5" s="2">
         <v>45439.599328703705</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="0">
+      <c r="F6">
         <v>500</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="0" t="s">
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
         <v>63</v>
       </c>
       <c r="K6" s="2">
         <v>45443.508993055555</v>
       </c>
-      <c r="L6" s="0" t="s">
+      <c r="L6" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="N6" s="0" t="s">
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
         <v>64</v>
       </c>
-      <c r="O6" s="0" t="s">
+      <c r="O6" t="s">
         <v>46</v>
       </c>
-      <c r="P6" s="0" t="s">
+      <c r="P6" t="s">
         <v>64</v>
       </c>
-      <c r="Q6" s="0" t="s">
+      <c r="Q6" t="s">
         <v>64</v>
       </c>
-      <c r="R6" s="0" t="s">
+      <c r="R6" t="s">
         <v>67</v>
       </c>
       <c r="S6" s="2">
-        <v>45400.36719907408</v>
-      </c>
-      <c r="T6" s="0">
+        <v>45400.367199074077</v>
+      </c>
+      <c r="T6">
         <v>500</v>
       </c>
-      <c r="U6" s="0" t="s">
+      <c r="U6" t="s">
         <v>68</v>
       </c>
-      <c r="V6" s="0">
+      <c r="V6">
         <v>759</v>
       </c>
-      <c r="W6" s="0" t="s">
+      <c r="W6" t="s">
         <v>50</v>
       </c>
-      <c r="X6" s="0" t="s">
+      <c r="X6" t="s">
         <v>51</v>
       </c>
-      <c r="Y6" s="0">
+      <c r="Y6">
         <v>14144.37219606</v>
       </c>
-      <c r="Z6" s="0" t="s">
+      <c r="Z6" t="s">
         <v>12</v>
       </c>
       <c r="AB6" s="2">
         <v>45439.599328703705</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="0">
+      <c r="F7">
         <v>1000</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="s">
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
         <v>73</v>
       </c>
       <c r="K7" s="2">
-        <v>45443.48351851852</v>
-      </c>
-      <c r="L7" s="0" t="s">
+        <v>45443.483518518522</v>
+      </c>
+      <c r="L7" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="N7" s="0" t="s">
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
         <v>57</v>
       </c>
-      <c r="O7" s="0" t="s">
+      <c r="O7" t="s">
         <v>72</v>
       </c>
-      <c r="P7" s="0" t="s">
+      <c r="P7" t="s">
         <v>74</v>
       </c>
-      <c r="R7" s="0" t="s">
+      <c r="R7" t="s">
         <v>75</v>
       </c>
       <c r="S7" s="2">
         <v>45433.66033564815</v>
       </c>
-      <c r="T7" s="0">
+      <c r="T7">
         <v>1085.49</v>
       </c>
-      <c r="U7" s="0" t="s">
+      <c r="U7" t="s">
         <v>76</v>
       </c>
-      <c r="V7" s="0">
+      <c r="V7">
         <v>759</v>
       </c>
-      <c r="W7" s="0" t="s">
+      <c r="W7" t="s">
         <v>41</v>
       </c>
-      <c r="X7" s="0" t="s">
+      <c r="X7" t="s">
         <v>42</v>
       </c>
-      <c r="Y7" s="0">
+      <c r="Y7">
         <v>1718.35877609</v>
       </c>
-      <c r="Z7" s="0" t="s">
+      <c r="Z7" t="s">
         <v>12</v>
       </c>
       <c r="AB7" s="2">
         <v>45439.599641203706</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="0">
+      <c r="F8">
         <v>250</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="0" t="s">
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
         <v>47</v>
       </c>
       <c r="K8" s="2">
         <v>45443.411782407406</v>
       </c>
-      <c r="L8" s="0" t="s">
+      <c r="L8" t="s">
         <v>36</v>
       </c>
-      <c r="M8" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="N8" s="0" t="s">
+      <c r="M8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
         <v>57</v>
       </c>
-      <c r="O8" s="0" t="s">
+      <c r="O8" t="s">
         <v>72</v>
       </c>
-      <c r="P8" s="0" t="s">
+      <c r="P8" t="s">
         <v>58</v>
       </c>
-      <c r="R8" s="0" t="s">
+      <c r="R8" t="s">
         <v>80</v>
       </c>
       <c r="S8" s="2">
-        <v>45428.68678240741</v>
-      </c>
-      <c r="T8" s="0">
+        <v>45428.686782407407</v>
+      </c>
+      <c r="T8">
         <v>271.13</v>
       </c>
-      <c r="U8" s="0" t="s">
+      <c r="U8" t="s">
         <v>81</v>
       </c>
-      <c r="V8" s="0">
+      <c r="V8">
         <v>661</v>
       </c>
-      <c r="W8" s="0" t="s">
+      <c r="W8" t="s">
         <v>82</v>
       </c>
-      <c r="X8" s="0" t="s">
+      <c r="X8" t="s">
         <v>42</v>
       </c>
-      <c r="Y8" s="0">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="0" t="s">
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="s">
         <v>12</v>
       </c>
       <c r="AB8" s="2">
         <v>45439.599641203706</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="0">
-        <v>514.21</v>
-      </c>
-      <c r="G9" s="0" t="s">
+      <c r="F9" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="0" t="s">
+      <c r="I9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="4">
         <v>45443.326736111114</v>
       </c>
-      <c r="L9" s="0" t="s">
+      <c r="L9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M9" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="N9" s="0" t="s">
+      <c r="M9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O9" s="0" t="s">
+      <c r="O9" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="P9" s="0" t="s">
+      <c r="P9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="R9" s="0" t="s">
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="S9" s="2">
-        <v>45428.58059027778</v>
-      </c>
-      <c r="T9" s="0">
-        <v>514.21</v>
-      </c>
-      <c r="U9" s="0" t="s">
+      <c r="S9" s="4">
+        <v>45428.580590277779</v>
+      </c>
+      <c r="T9" s="3">
+        <v>5000</v>
+      </c>
+      <c r="U9" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="V9" s="0">
+      <c r="V9" s="3">
         <v>764</v>
       </c>
-      <c r="W9" s="0" t="s">
+      <c r="W9" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="X9" s="0" t="s">
+      <c r="X9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Y9" s="0">
-        <v>1397.99</v>
-      </c>
-      <c r="Z9" s="0" t="s">
+      <c r="Y9" s="3">
+        <v>1306.72</v>
+      </c>
+      <c r="Z9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AB9" s="2">
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="4">
         <v>45439.59716435185</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>94</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="0">
+      <c r="F10">
         <v>13625.57</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="0" t="s">
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
         <v>95</v>
       </c>
       <c r="K10" s="2">
-        <v>45443.28836805555</v>
-      </c>
-      <c r="L10" s="0" t="s">
+        <v>45443.288368055553</v>
+      </c>
+      <c r="L10" t="s">
         <v>36</v>
       </c>
-      <c r="M10" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="N10" s="0" t="s">
+      <c r="M10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
         <v>37</v>
       </c>
-      <c r="O10" s="0" t="s">
+      <c r="O10" t="s">
         <v>94</v>
       </c>
-      <c r="P10" s="0" t="s">
+      <c r="P10" t="s">
         <v>38</v>
       </c>
-      <c r="R10" s="0" t="s">
+      <c r="R10" t="s">
         <v>96</v>
       </c>
       <c r="S10" s="2">
-        <v>45420.45271990741</v>
-      </c>
-      <c r="T10" s="0">
+        <v>45420.452719907407</v>
+      </c>
+      <c r="T10">
         <v>13625.57</v>
       </c>
-      <c r="U10" s="0" t="s">
+      <c r="U10" t="s">
         <v>97</v>
       </c>
-      <c r="V10" s="0">
+      <c r="V10">
         <v>963</v>
       </c>
-      <c r="W10" s="0" t="s">
+      <c r="W10" t="s">
         <v>90</v>
       </c>
-      <c r="X10" s="0" t="s">
+      <c r="X10" t="s">
         <v>51</v>
       </c>
-      <c r="Y10" s="0">
+      <c r="Y10">
         <v>59999.35263609</v>
       </c>
-      <c r="Z10" s="0" t="s">
+      <c r="Z10" t="s">
         <v>12</v>
       </c>
-      <c r="AA10" s="0">
+      <c r="AA10">
         <v>1</v>
       </c>
       <c r="AB10" s="2">
         <v>45439.596863425926</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="0">
+      <c r="F11">
         <v>250</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="H11" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="0" t="s">
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
         <v>47</v>
       </c>
       <c r="K11" s="2">
         <v>45443.260034722225</v>
       </c>
-      <c r="L11" s="0" t="s">
+      <c r="L11" t="s">
         <v>36</v>
       </c>
-      <c r="M11" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="N11" s="0" t="s">
+      <c r="M11" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
         <v>57</v>
       </c>
-      <c r="O11" s="0" t="s">
+      <c r="O11" t="s">
         <v>86</v>
       </c>
-      <c r="P11" s="0" t="s">
+      <c r="P11" t="s">
         <v>101</v>
       </c>
-      <c r="R11" s="0" t="s">
+      <c r="R11" t="s">
         <v>102</v>
       </c>
       <c r="S11" s="2">
-        <v>45435.36761574074</v>
-      </c>
-      <c r="T11" s="0">
+        <v>45435.367615740739</v>
+      </c>
+      <c r="T11">
         <v>250</v>
       </c>
-      <c r="U11" s="0" t="s">
+      <c r="U11" t="s">
         <v>103</v>
       </c>
-      <c r="V11" s="0">
+      <c r="V11">
         <v>1043</v>
       </c>
-      <c r="W11" s="0" t="s">
+      <c r="W11" t="s">
         <v>50</v>
       </c>
-      <c r="X11" s="0" t="s">
+      <c r="X11" t="s">
         <v>51</v>
       </c>
-      <c r="Y11" s="0">
+      <c r="Y11">
         <v>500</v>
       </c>
-      <c r="Z11" s="0" t="s">
+      <c r="Z11" t="s">
         <v>12</v>
       </c>
       <c r="AB11" s="2">
         <v>45439.59716435185</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="0">
+      <c r="F12">
         <v>976.01</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" t="s">
         <v>108</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="H12" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" s="0" t="s">
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
         <v>109</v>
       </c>
       <c r="K12" s="2">
         <v>45442.729629629626</v>
       </c>
-      <c r="L12" s="0" t="s">
+      <c r="L12" t="s">
         <v>36</v>
       </c>
-      <c r="M12" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="N12" s="0" t="s">
+      <c r="M12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="0" t="s">
+      <c r="O12" t="s">
         <v>107</v>
       </c>
-      <c r="P12" s="0" t="s">
+      <c r="P12" t="s">
         <v>38</v>
       </c>
-      <c r="R12" s="0" t="s">
+      <c r="R12" t="s">
         <v>110</v>
       </c>
       <c r="S12" s="2">
         <v>45407.577523148146</v>
       </c>
-      <c r="T12" s="0">
-        <v>1058.1217</v>
-      </c>
-      <c r="U12" s="0" t="s">
+      <c r="T12">
+        <v>1058.1216999999999</v>
+      </c>
+      <c r="U12" t="s">
         <v>111</v>
       </c>
-      <c r="V12" s="0" t="s">
+      <c r="V12" t="s">
         <v>112</v>
       </c>
-      <c r="W12" s="0" t="s">
+      <c r="W12" t="s">
         <v>113</v>
       </c>
-      <c r="X12" s="0" t="s">
+      <c r="X12" t="s">
         <v>42</v>
       </c>
-      <c r="Y12" s="0">
-        <v>1430.44071484</v>
-      </c>
-      <c r="Z12" s="0" t="s">
+      <c r="Y12">
+        <v>1430.4407148400001</v>
+      </c>
+      <c r="Z12" t="s">
         <v>12</v>
       </c>
       <c r="AB12" s="2">
         <v>45439.60429398148</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="0">
+      <c r="F13">
         <v>904.48</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="H13" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="0" t="s">
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
         <v>47</v>
       </c>
       <c r="K13" s="2">
-        <v>45442.62541666667</v>
-      </c>
-      <c r="L13" s="0" t="s">
+        <v>45442.625416666669</v>
+      </c>
+      <c r="L13" t="s">
         <v>36</v>
       </c>
-      <c r="M13" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="N13" s="0" t="s">
+      <c r="M13" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
         <v>37</v>
       </c>
-      <c r="O13" s="0" t="s">
+      <c r="O13" t="s">
         <v>46</v>
       </c>
-      <c r="P13" s="0" t="s">
+      <c r="P13" t="s">
         <v>114</v>
       </c>
-      <c r="R13" s="0" t="s">
+      <c r="R13" t="s">
         <v>115</v>
       </c>
       <c r="S13" s="2">
         <v>45434.199895833335</v>
       </c>
-      <c r="T13" s="0">
+      <c r="T13">
         <v>904.48</v>
       </c>
-      <c r="U13" s="0" t="s">
+      <c r="U13" t="s">
         <v>116</v>
       </c>
-      <c r="V13" s="0">
+      <c r="V13">
         <v>973</v>
       </c>
-      <c r="W13" s="0" t="s">
+      <c r="W13" t="s">
         <v>50</v>
       </c>
-      <c r="X13" s="0" t="s">
+      <c r="X13" t="s">
         <v>51</v>
       </c>
-      <c r="Y13" s="0">
+      <c r="Y13">
         <v>9269.08288593</v>
       </c>
-      <c r="Z13" s="0" t="s">
+      <c r="Z13" t="s">
         <v>12</v>
       </c>
       <c r="AB13" s="2">
         <v>45439.599328703705</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>118</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>119</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="0">
+      <c r="F14">
         <v>250</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="G14" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="H14" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="0" t="s">
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
         <v>35</v>
       </c>
       <c r="K14" s="2">
-        <v>45442.59605324074</v>
-      </c>
-      <c r="L14" s="0" t="s">
+        <v>45442.596053240741</v>
+      </c>
+      <c r="L14" t="s">
         <v>36</v>
       </c>
-      <c r="M14" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="N14" s="0" t="s">
+      <c r="M14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
         <v>57</v>
       </c>
-      <c r="O14" s="0" t="s">
+      <c r="O14" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="0" t="s">
+      <c r="P14" t="s">
         <v>58</v>
       </c>
       <c r="S14" s="2">
-        <v>45433.83949074074</v>
-      </c>
-      <c r="T14" s="0">
-        <v>270.8325</v>
-      </c>
-      <c r="U14" s="0" t="s">
+        <v>45433.839490740742</v>
+      </c>
+      <c r="T14">
+        <v>270.83249999999998</v>
+      </c>
+      <c r="U14" t="s">
         <v>120</v>
       </c>
-      <c r="V14" s="0">
+      <c r="V14">
         <v>672</v>
       </c>
-      <c r="W14" s="0" t="s">
+      <c r="W14" t="s">
         <v>41</v>
       </c>
-      <c r="X14" s="0" t="s">
+      <c r="X14" t="s">
         <v>42</v>
       </c>
-      <c r="Y14" s="0">
-        <v>145.44514445</v>
-      </c>
-      <c r="Z14" s="0" t="s">
+      <c r="Y14">
+        <v>145.44514444999999</v>
+      </c>
+      <c r="Z14" t="s">
         <v>12</v>
       </c>
-      <c r="AA14" s="0">
+      <c r="AA14">
         <v>1</v>
       </c>
       <c r="AB14" s="2">
         <v>45439.596863425926</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>121</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="0">
+      <c r="F15">
         <v>250</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="G15" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="H15" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="0" t="s">
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
         <v>124</v>
       </c>
       <c r="K15" s="2">
         <v>45442.582719907405</v>
       </c>
-      <c r="L15" s="0" t="s">
+      <c r="L15" t="s">
         <v>36</v>
       </c>
-      <c r="M15" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="N15" s="0" t="s">
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
         <v>57</v>
       </c>
-      <c r="O15" s="0" t="s">
+      <c r="O15" t="s">
         <v>54</v>
       </c>
-      <c r="P15" s="0" t="s">
+      <c r="P15" t="s">
         <v>58</v>
       </c>
       <c r="S15" s="2">
-        <v>45434.40458333334</v>
-      </c>
-      <c r="T15" s="0">
-        <v>270.72</v>
-      </c>
-      <c r="U15" s="0" t="s">
+        <v>45434.404583333337</v>
+      </c>
+      <c r="T15">
+        <v>270.72000000000003</v>
+      </c>
+      <c r="U15" t="s">
         <v>125</v>
       </c>
-      <c r="V15" s="0">
+      <c r="V15">
         <v>658</v>
       </c>
-      <c r="W15" s="0" t="s">
+      <c r="W15" t="s">
         <v>41</v>
       </c>
-      <c r="X15" s="0" t="s">
+      <c r="X15" t="s">
         <v>42</v>
       </c>
-      <c r="Y15" s="0">
-        <v>38.80159533</v>
-      </c>
-      <c r="Z15" s="0" t="s">
+      <c r="Y15">
+        <v>38.801595329999998</v>
+      </c>
+      <c r="Z15" t="s">
         <v>12</v>
       </c>
-      <c r="AA15" s="0">
+      <c r="AA15">
         <v>1</v>
       </c>
       <c r="AB15" s="2">
-        <v>45439.59853009259</v>
+        <v>45439.598530092589</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>126</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>127</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>128</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>129</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="0">
+      <c r="F16">
         <v>1000</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="0" t="s">
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
         <v>124</v>
       </c>
       <c r="K16" s="2">
-        <v>45442.57053240741</v>
-      </c>
-      <c r="L16" s="0" t="s">
+        <v>45442.570532407408</v>
+      </c>
+      <c r="L16" t="s">
         <v>36</v>
       </c>
-      <c r="M16" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="N16" s="0" t="s">
+      <c r="M16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
         <v>57</v>
       </c>
-      <c r="O16" s="0" t="s">
+      <c r="O16" t="s">
         <v>129</v>
       </c>
-      <c r="P16" s="0" t="s">
+      <c r="P16" t="s">
         <v>74</v>
       </c>
-      <c r="R16" s="0" t="s">
+      <c r="R16" t="s">
         <v>130</v>
       </c>
       <c r="S16" s="2">
-        <v>45433.61585648148</v>
-      </c>
-      <c r="T16" s="0">
+        <v>45433.615856481483</v>
+      </c>
+      <c r="T16">
         <v>1082.71</v>
       </c>
-      <c r="U16" s="0" t="s">
+      <c r="U16" t="s">
         <v>131</v>
       </c>
-      <c r="V16" s="0">
+      <c r="V16">
         <v>764</v>
       </c>
-      <c r="W16" s="0" t="s">
+      <c r="W16" t="s">
         <v>41</v>
       </c>
-      <c r="X16" s="0" t="s">
+      <c r="X16" t="s">
         <v>42</v>
       </c>
-      <c r="Y16" s="0">
+      <c r="Y16">
         <v>1581.17577239</v>
       </c>
-      <c r="Z16" s="0" t="s">
+      <c r="Z16" t="s">
         <v>12</v>
       </c>
-      <c r="AA16" s="0">
+      <c r="AA16">
         <v>1</v>
       </c>
       <c r="AB16" s="2">
         <v>45439.59815972222</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>132</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>133</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>134</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>135</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="0">
+      <c r="F17">
         <v>980.21</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="G17" t="s">
         <v>33</v>
       </c>
-      <c r="H17" s="0" t="s">
+      <c r="H17" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="0" t="s">
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
         <v>136</v>
       </c>
       <c r="K17" s="2">
-        <v>45442.53239583333</v>
-      </c>
-      <c r="L17" s="0" t="s">
+        <v>45442.532395833332</v>
+      </c>
+      <c r="L17" t="s">
         <v>36</v>
       </c>
-      <c r="M17" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="N17" s="0" t="s">
+      <c r="M17" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
         <v>37</v>
       </c>
-      <c r="O17" s="0" t="s">
+      <c r="O17" t="s">
         <v>135</v>
       </c>
-      <c r="P17" s="0" t="s">
+      <c r="P17" t="s">
         <v>38</v>
       </c>
-      <c r="R17" s="0" t="s">
+      <c r="R17" t="s">
         <v>137</v>
       </c>
       <c r="S17" s="2">
         <v>45428.599756944444</v>
       </c>
-      <c r="T17" s="0">
+      <c r="T17">
         <v>1061.3616</v>
       </c>
-      <c r="U17" s="0" t="s">
+      <c r="U17" t="s">
         <v>138</v>
       </c>
-      <c r="V17" s="0">
+      <c r="V17">
         <v>777</v>
       </c>
-      <c r="W17" s="0" t="s">
+      <c r="W17" t="s">
         <v>139</v>
       </c>
-      <c r="X17" s="0" t="s">
+      <c r="X17" t="s">
         <v>42</v>
       </c>
-      <c r="Y17" s="0">
+      <c r="Y17">
         <v>2935.61843486</v>
       </c>
-      <c r="Z17" s="0" t="s">
+      <c r="Z17" t="s">
         <v>12</v>
       </c>
-      <c r="AA17" s="0">
+      <c r="AA17">
         <v>1</v>
       </c>
       <c r="AB17" s="2">
-        <v>45439.59653935185</v>
+        <v>45439.596539351849</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="0">
+      <c r="F18">
         <v>500</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="G18" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="0" t="s">
+      <c r="H18" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="0" t="s">
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
         <v>47</v>
       </c>
       <c r="K18" s="2">
-        <v>45442.38491898148</v>
-      </c>
-      <c r="L18" s="0" t="s">
+        <v>45442.384918981479</v>
+      </c>
+      <c r="L18" t="s">
         <v>36</v>
       </c>
-      <c r="M18" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="N18" s="0" t="s">
+      <c r="M18" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
         <v>57</v>
       </c>
-      <c r="O18" s="0" t="s">
+      <c r="O18" t="s">
         <v>72</v>
       </c>
-      <c r="P18" s="0" t="s">
+      <c r="P18" t="s">
         <v>58</v>
       </c>
-      <c r="R18" s="0" t="s">
+      <c r="R18" t="s">
         <v>140</v>
       </c>
       <c r="S18" s="2">
-        <v>45428.68678240741</v>
-      </c>
-      <c r="T18" s="0">
+        <v>45428.686782407407</v>
+      </c>
+      <c r="T18">
         <v>540.77</v>
       </c>
-      <c r="U18" s="0" t="s">
+      <c r="U18" t="s">
         <v>141</v>
       </c>
-      <c r="V18" s="0">
+      <c r="V18">
         <v>661</v>
       </c>
-      <c r="W18" s="0" t="s">
+      <c r="W18" t="s">
         <v>82</v>
       </c>
-      <c r="X18" s="0" t="s">
+      <c r="X18" t="s">
         <v>42</v>
       </c>
-      <c r="Y18" s="0">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="0" t="s">
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="s">
         <v>12</v>
       </c>
       <c r="AB18" s="2">
         <v>45439.599641203706</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="0">
+      <c r="F19">
         <v>910.22</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="G19" t="s">
         <v>33</v>
       </c>
-      <c r="H19" s="0" t="s">
+      <c r="H19" t="s">
         <v>34</v>
       </c>
-      <c r="I19" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="0" t="s">
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
         <v>47</v>
       </c>
       <c r="K19" s="2">
-        <v>45442.25434027778</v>
-      </c>
-      <c r="L19" s="0" t="s">
+        <v>45442.254340277781</v>
+      </c>
+      <c r="L19" t="s">
         <v>36</v>
       </c>
-      <c r="M19" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="N19" s="0" t="s">
+      <c r="M19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19" t="s">
         <v>37</v>
       </c>
-      <c r="O19" s="0" t="s">
+      <c r="O19" t="s">
         <v>46</v>
       </c>
-      <c r="P19" s="0" t="s">
+      <c r="P19" t="s">
         <v>114</v>
       </c>
-      <c r="R19" s="0" t="s">
+      <c r="R19" t="s">
         <v>142</v>
       </c>
       <c r="S19" s="2">
         <v>45434.199895833335</v>
       </c>
-      <c r="T19" s="0">
+      <c r="T19">
         <v>910.22</v>
       </c>
-      <c r="U19" s="0" t="s">
+      <c r="U19" t="s">
         <v>143</v>
       </c>
-      <c r="V19" s="0">
+      <c r="V19">
         <v>973</v>
       </c>
-      <c r="W19" s="0" t="s">
+      <c r="W19" t="s">
         <v>50</v>
       </c>
-      <c r="X19" s="0" t="s">
+      <c r="X19" t="s">
         <v>51</v>
       </c>
-      <c r="Y19" s="0">
+      <c r="Y19">
         <v>9269.08288593</v>
       </c>
-      <c r="Z19" s="0" t="s">
+      <c r="Z19" t="s">
         <v>12</v>
       </c>
       <c r="AB19" s="2">
@@ -2085,6 +2424,6 @@
       </c>
     </row>
   </sheetData>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Monetary Transactions_ret.xlsx
+++ b/Monetary Transactions_ret.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jack Wilson\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06084BEB-F143-4297-A2E5-C6E7804369AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2729D2A1-2EF7-46E5-8B89-B95828BCE2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4785" yWindow="2085" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetName1" sheetId="1" r:id="rId1"/>
@@ -506,11 +506,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -848,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:AB9"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,7 +864,7 @@
     <col min="10" max="10" width="12" customWidth="1"/>
     <col min="11" max="11" width="18.7109375" customWidth="1"/>
     <col min="12" max="12" width="5" customWidth="1"/>
-    <col min="13" max="13" width="4.140625" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.5703125" customWidth="1"/>
     <col min="15" max="15" width="25.28515625" customWidth="1"/>
     <col min="16" max="16" width="16.5703125" customWidth="1"/>
@@ -1533,84 +1531,82 @@
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9">
         <v>5000</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3" t="s">
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
         <v>87</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="2">
         <v>45443.326736111114</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" t="s">
         <v>36</v>
       </c>
-      <c r="M9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3" t="s">
+      <c r="M9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
         <v>37</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="O9" t="s">
         <v>86</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="P9" t="s">
         <v>38</v>
       </c>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3" t="s">
+      <c r="R9" t="s">
         <v>88</v>
       </c>
-      <c r="S9" s="4">
+      <c r="S9" s="2">
         <v>45428.580590277779</v>
       </c>
-      <c r="T9" s="3">
+      <c r="T9">
         <v>5000</v>
       </c>
-      <c r="U9" s="3" t="s">
+      <c r="U9" t="s">
         <v>89</v>
       </c>
-      <c r="V9" s="3">
+      <c r="V9">
         <v>764</v>
       </c>
-      <c r="W9" s="3" t="s">
+      <c r="W9" t="s">
         <v>90</v>
       </c>
-      <c r="X9" s="3" t="s">
+      <c r="X9" t="s">
         <v>51</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Y9">
         <v>1306.72</v>
       </c>
-      <c r="Z9" s="3" t="s">
+      <c r="Z9" t="s">
         <v>12</v>
       </c>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="4">
+      <c r="AB9" s="2">
         <v>45439.59716435185</v>
       </c>
     </row>
@@ -1667,7 +1663,7 @@
         <v>96</v>
       </c>
       <c r="S10" s="2">
-        <v>45420.452719907407</v>
+        <v>45390.452719907407</v>
       </c>
       <c r="T10">
         <v>13625.57</v>

--- a/Monetary Transactions_ret.xlsx
+++ b/Monetary Transactions_ret.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jack Wilson\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2729D2A1-2EF7-46E5-8B89-B95828BCE2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C4B077-6C16-4431-A45E-DEAD48952C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetName1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="149">
   <si>
     <t>Account ID</t>
   </si>
@@ -452,6 +452,21 @@
   </si>
   <si>
     <t>194012</t>
+  </si>
+  <si>
+    <t>AC2028053</t>
+  </si>
+  <si>
+    <t>Caryn</t>
+  </si>
+  <si>
+    <t>Buys</t>
+  </si>
+  <si>
+    <t>0x4576a940621806424AcCACc11fB2f3Be1e745981</t>
+  </si>
+  <si>
+    <t>194230</t>
   </si>
 </sst>
 </file>
@@ -461,7 +476,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -471,8 +486,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -482,6 +503,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -506,10 +533,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -844,10 +873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB19"/>
+  <dimension ref="A1:AB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V19" sqref="V19:V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1585,7 +1614,7 @@
       <c r="S9" s="2">
         <v>45428.580590277779</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="4">
         <v>5000</v>
       </c>
       <c r="U9" t="s">
@@ -1662,7 +1691,7 @@
       <c r="R10" t="s">
         <v>96</v>
       </c>
-      <c r="S10" s="2">
+      <c r="S10" s="3">
         <v>45390.452719907407</v>
       </c>
       <c r="T10">
@@ -2417,6 +2446,166 @@
       </c>
       <c r="AB19" s="2">
         <v>45439.599328703705</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20">
+        <v>805.14</v>
+      </c>
+      <c r="G20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20" s="2">
+        <v>45443.577546296299</v>
+      </c>
+      <c r="L20" t="s">
+        <v>36</v>
+      </c>
+      <c r="M20" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20" t="s">
+        <v>37</v>
+      </c>
+      <c r="O20" t="s">
+        <v>31</v>
+      </c>
+      <c r="P20" t="s">
+        <v>38</v>
+      </c>
+      <c r="R20" t="s">
+        <v>39</v>
+      </c>
+      <c r="S20" s="2">
+        <v>45432.725555555553</v>
+      </c>
+      <c r="T20">
+        <v>875.29179999999997</v>
+      </c>
+      <c r="U20" t="s">
+        <v>40</v>
+      </c>
+      <c r="V20">
+        <v>973</v>
+      </c>
+      <c r="W20" t="s">
+        <v>41</v>
+      </c>
+      <c r="X20" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y20">
+        <v>805.14</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB20" s="2">
+        <v>45439.598854166667</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" t="s">
+        <v>146</v>
+      </c>
+      <c r="D21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21">
+        <v>2590.6</v>
+      </c>
+      <c r="G21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>95</v>
+      </c>
+      <c r="K21" s="2">
+        <v>45443.603715277779</v>
+      </c>
+      <c r="L21" t="s">
+        <v>36</v>
+      </c>
+      <c r="M21" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" t="s">
+        <v>37</v>
+      </c>
+      <c r="O21" t="s">
+        <v>72</v>
+      </c>
+      <c r="P21" t="s">
+        <v>38</v>
+      </c>
+      <c r="R21" t="s">
+        <v>147</v>
+      </c>
+      <c r="S21" s="2">
+        <v>45419.434166666666</v>
+      </c>
+      <c r="T21">
+        <v>2590.6</v>
+      </c>
+      <c r="U21" t="s">
+        <v>148</v>
+      </c>
+      <c r="V21">
+        <v>973</v>
+      </c>
+      <c r="W21" t="s">
+        <v>90</v>
+      </c>
+      <c r="X21" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y21">
+        <v>8998.8468191299999</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB21" s="2">
+        <v>45439.599641203706</v>
       </c>
     </row>
   </sheetData>

--- a/Monetary Transactions_ret.xlsx
+++ b/Monetary Transactions_ret.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jack Wilson\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C4B077-6C16-4431-A45E-DEAD48952C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04957F4-A8D2-47C9-A6D5-0D2057223E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetName1" sheetId="1" r:id="rId1"/>
@@ -875,8 +875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V19" sqref="V19:V21"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2581,7 +2581,7 @@
         <v>147</v>
       </c>
       <c r="S21" s="2">
-        <v>45419.434166666666</v>
+        <v>45389.434166666666</v>
       </c>
       <c r="T21">
         <v>2590.6</v>
